--- a/other_file/学习/appium爬坑记.xlsx
+++ b/other_file/学习/appium爬坑记.xlsx
@@ -1,69 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016"/>
+    <workbookView windowWidth="22368" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>获取当前的appPackage和appActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+  <si>
+    <t>【Appium】爬坑记</t>
   </si>
   <si>
     <t>appium环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【Appium】爬坑记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>appium+python+逍遥游模拟器 环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADB命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell logcat|findstr "Displayed"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">获取当前的appPackage和appActivity，appWaitActivity </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell dumpsys activity top |findstr "ACTIVITY"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑难杂症</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错：appium创建session失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方法：在启动参数里面加一个appWaitActivity，参数值填写第二个activity的值即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需要文件版本：appium1.3.4 jdk1.8 sdk appium-client0.24 逍遥游模拟器5.1.1
@@ -73,115 +34,135 @@
 4、安装SDK 配置环境变量 ANDROID_HOME %ANDROID_HOME%\platform-tools；%ANDROID_HOME%\tools
 5、安装appium客户端python中
 6、安装安卓模拟器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADB命令</t>
+  </si>
+  <si>
+    <t>adb shell logcat|findstr "Displayed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取当前的appPackage和appActivity，appWaitActivity </t>
+  </si>
+  <si>
+    <t>adb shell dumpsys activity top |findstr "ACTIVITY"</t>
+  </si>
+  <si>
+    <t>获取当前的appPackage和appActivity</t>
+  </si>
+  <si>
+    <t>adb devices</t>
+  </si>
+  <si>
+    <t>获取设备列表及设备状态</t>
   </si>
   <si>
     <t>appium-doctor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>终端检查appium环境配置情况 需要安装nodejs 配置环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取设备列表及设备状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb install，adb uninstall</t>
+  </si>
+  <si>
+    <t>终端安装/卸载app</t>
   </si>
   <si>
     <t>adb get-state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获取设备状态device 设备正常连接, offline 连接出现异常，设备无响应, unknown没有连接设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adb kill-server , adb start-server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb install，adb uninstall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端安装/卸载app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束 adb 服务， 启动 adb 服务</t>
   </si>
   <si>
     <t>adb pull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 Android 设备上的文件或者文件夹复制到本地 adb pull sdcard/pull.txt d:\</t>
   </si>
   <si>
     <t>adb push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束 adb 服务， 启动 adb 服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将 Android 设备上的文件或者文件夹复制到本地 adb pull sdcard/pull.txt d:\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推送本地文件至 Android 设备 adb push d:\push.txt sdcard/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adb reboot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重启安卓设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adb shell pm list package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列出设备上的所有应用的包名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">adb shell pm list package -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列出系统应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adb shell pm list package -3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列出第三方应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adb shell pm list package -f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列出包名及安装来源信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑难杂症</t>
+  </si>
+  <si>
+    <t>报错：appium创建session失败</t>
+  </si>
+  <si>
+    <t>解决方法：在启动参数里面加一个appWaitActivity，参数值填写第二个activity的值即可</t>
+  </si>
+  <si>
+    <t>uiautomator无法获取页面元素，只能获取整个页面</t>
   </si>
   <si>
     <t>解决方法：在模拟器应用市场中下载 TalkBack辅助工具，在模拟器设置-辅助设置中打开该软件 再次回去即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiautomator无法获取页面元素，只能获取整个页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>将代码封装，并使用unittest调用时，返回警告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>解决方法：通过warnings库来忽略告警提示，import warnings warnings.simplefilter("ignore", ResourceWarning)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb连接夜神模拟器，两个adb的版本不一样</t>
+  </si>
+  <si>
+    <t>解决方法：安卓开发工具文件夹的adb版本，替换夜神bin文件夹下的adb和nox_adb，夜神模拟器要求SDK中的adb和夜神的adb和nox_adb版本一样才可以</t>
+  </si>
+  <si>
+    <t>appium设置超时默认60S内没有命令就关闭app</t>
+  </si>
+  <si>
+    <t>启动项里面加参数 desired_caps['newCommandTimeout']=3600</t>
+  </si>
+  <si>
+    <t>其他模拟器连接不上</t>
+  </si>
+  <si>
+    <t>模拟器文件夹中的adb和安卓开发工具包中的adb命令不是一个版本复制下就好了</t>
+  </si>
+  <si>
+    <t>app稳定性测试，monkeytest 简化：adb shell monkey -p包名 -v次数 &gt;D:\xxx.txt保存文件名字地址 结束monkey测试：adb shell -&gt;ps | grep monkey -&gt;kill pid 端口号</t>
   </si>
   <si>
     <t>命令：adb shell monkey -p 包名 -s 53412 --throttle 200 --pct-touch 35 --pct-motion 10 --pct-nav 20 --pct-majornav 15 --pct-appswitch 5 --pct-anyevent 5 --pct-trackball 0 --pct-syskeys 0 --ignore-crashes --ignore-timeouts --ignore-security-exceptions --bugreport -v 100000  
@@ -194,7 +175,6 @@
 7、参数--ignore-security-exceptions：用于指定当应用程序发生许可错误时，monkey是否停止运行。如果使用此参数，即使应用程序发生许可错误，monkey依然会发送事件，直到事件计数完成
 8、参数 --monitor-native-crashes：用于指定是否监视并报告应用程序发生崩溃的本地代码
 9、参数--pct-{+事件类别}{+事件类别百分比}：用于指定每种类别事件的数目百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>monkey的log分析：
@@ -208,58 +188,33 @@
 观察log的基本步骤：
 1、直接搜索关键词，快速定位到事件信息
 2、定位关键事件信息后，如果信息不够明确的，再去搜索应用程序包的虚拟机信息，查看具体的进程和线程跟踪日志，来定位到代码。（“Dalvik Thread”快速定位到虚拟机信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>monkey测试日志结果分析：
 注意查找日志中的无响应问题和崩溃问题。无响应问题可以在日志中搜索 “ANR” ，崩溃问题搜索 “CRASH” ，内存泄露问题搜索"GC"（需进一步分析），异常问题搜索 “Exception”（如果出现空指针， NullPointerException，需格外重视）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Monkey测试终止的条件：
 1、如果限定了Monkey运行在一个或几个特定的包上，那么它会监测试图转到其它包的操作，并对其进行阻止。
 2、如果应用程序崩溃或接收到任何失控异常，Monkey将停止并报错。
 3、如果应用程序产生了应用程序不响应(application not responding)的错误，Monkey将会停止并报错。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app稳定性测试，monkeytest 简化：adb shell monkey -p包名 -v次数 &gt;D:\xxx.txt保存文件名字地址 结束monkey测试：adb shell -&gt;ps | grep monkey -&gt;kill pid 端口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方法：安卓开发工具文件夹的adb版本，替换夜神bin文件夹下的adb和nox_adb，夜神模拟器要求SDK中的adb和夜神的adb和nox_adb版本一样才可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb连接夜神模拟器，两个adb的版本不一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appium设置超时默认60S内没有命令就关闭app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动项里面加参数 desired_caps['newCommandTimeout']=3600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -267,7 +222,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -275,7 +229,6 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -283,12 +236,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +404,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -310,9 +599,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -320,33 +851,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -629,296 +1212,306 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="101.666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="6" width="57" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="7" max="16384" width="8.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="100.95" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="100.95" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" ht="14.4" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="7" ht="14.4" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="11" ht="14.4" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    <row r="13" ht="14.4" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="14" ht="14.4" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="15" ht="14.4" spans="1:3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="16" ht="14.4" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="17" ht="14.4" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" ht="14.4" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" ht="14.4" spans="1:3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="20" ht="28.8" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
+    <row r="21" ht="28.8" spans="1:3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="14.4" spans="1:3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="14.4" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" ht="14.4" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="30" ht="259.2" spans="2:6">
+      <c r="B30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="259.2">
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>43</v>
+      <c r="E30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A3:A16"/>
     <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other_file/学习/appium爬坑记.xlsx
+++ b/other_file/学习/appium爬坑记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9515"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,12 +205,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,14 +234,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +310,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,29 +340,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,92 +365,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,187 +392,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +583,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,29 +642,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,17 +675,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,148 +688,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,19 +843,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,7 +1207,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="17.4" outlineLevelCol="5"/>
@@ -1264,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>7</v>
@@ -1433,7 +1419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="14.4" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>44</v>
